--- a/Speech and Language Processing Textbook/Naive Bayes/data_prueba/prueba_naive_bayes.xlsx
+++ b/Speech and Language Processing Textbook/Naive Bayes/data_prueba/prueba_naive_bayes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/kmgomezm_eafit_edu_co/Documents/Proyecto Humanidades Digitales y Esfera Pública/Código/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/kmgomezm_eafit_edu_co/Documents/Proyecto Humanidades Digitales y Esfera Pública/HumanidadesDigitales/Speech and Language Processing Textbook/Naive Bayes/data_prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{903067CC-B7B6-4A5C-ACDE-372B3E2E9221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24FD198B-61B4-4522-A736-96D01F8CCC48}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10428" yWindow="348" windowWidth="12612" windowHeight="11904" xr2:uid="{550ED886-F261-41D5-A787-4DC54378D6A7}"/>
+    <workbookView minimized="1" xWindow="1464" yWindow="1464" windowWidth="12612" windowHeight="11904" xr2:uid="{550ED886-F261-41D5-A787-4DC54378D6A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1109,7 +1109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A3F5AF-45DD-4240-9A2C-798264E917D7}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
